--- a/nominas_persistentes.xlsx
+++ b/nominas_persistentes.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +469,510 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11027335</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ORBACH ALBERTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HUGO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>33920521</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OSORIO MARTIN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HORACIO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>28029403</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OZUNA WALTER</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04703477</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PASETTO FERNANDO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LAZARO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16354298</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PEREA ROGELIO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELADIO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12600144</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>POLAKIEWICK SERGIO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MARIO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>28454779</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ROJAS JUAN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28592127</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ROMERO DIEGO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RAUL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>31738492</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ROMERO JUAN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CARLOS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>45623997</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SANTILLAN DIEGO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ANTONIO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>94720639</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SILVERO MARIO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RAMON</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>38691218</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SORIA FABIO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OSVALDO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20550320</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SOSA CARLOS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>JESUS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>41880461</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SOSA KEVIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>94439309</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TICONA CALDERON</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DANIEL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18579333</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UEHARA MARIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CRISTINA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>39588571</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VALENCIA FRANCO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EZEQUIEL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>41988092</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VALENCIA LAUTARO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NAHUEL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mecan Se</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>46336</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>46023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/nominas_persistentes.xlsx
+++ b/nominas_persistentes.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,507 +470,1919 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>11027335</t>
-        </is>
+      <c r="A2" t="n">
+        <v>40895185</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORBACH ALBERTO</t>
+          <t>ABALOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>AXEL SEBASTIAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>33920521</t>
-        </is>
+      <c r="A3" t="n">
+        <v>27445664</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OSORIO MARTIN</t>
+          <t>ABREGU</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HORACIO</t>
+          <t>PEDRO PABLO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>28029403</t>
-        </is>
+      <c r="A4" t="n">
+        <v>14659111</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OZUNA WALTER</t>
+          <t>ACEVEDO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>SERGIO MIGUEL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04703477</t>
-        </is>
+      <c r="A5" t="n">
+        <v>34407306</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PASETTO FERNANDO</t>
+          <t>ACIAR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAZARO</t>
+          <t>MATIAS JAVIER</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16354298</t>
-        </is>
+      <c r="A6" t="n">
+        <v>22303173</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PEREA ROGELIO</t>
+          <t>ACUÑA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELADIO</t>
+          <t>RICARDO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12600144</t>
-        </is>
+      <c r="A7" t="n">
+        <v>35506153</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POLAKIEWICK SERGIO</t>
+          <t>AGUERO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MARIO</t>
+          <t>ROBLES JOSE DAVID</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28454779</t>
-        </is>
+      <c r="A8" t="n">
+        <v>16929529</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROJAS JUAN</t>
+          <t>AGUIAR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>FEDERICO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28592127</t>
-        </is>
+      <c r="A9" t="n">
+        <v>95976802</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROMERO DIEGO</t>
+          <t>AGUILAR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RAUL</t>
+          <t>ROSSELL OSCAR ENRIQUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>31738492</t>
-        </is>
+      <c r="A10" t="n">
+        <v>21926328</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ROMERO JUAN</t>
+          <t>AGUIRRE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CARLOS</t>
+          <t>JUAN CARLOS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>45623997</t>
-        </is>
+      <c r="A11" t="n">
+        <v>40305383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SANTILLAN DIEGO</t>
+          <t>AGUIRRE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANTONIO</t>
+          <t>MATIAS LUCIANO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>94720639</t>
-        </is>
+      <c r="A12" t="n">
+        <v>31140573</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SILVERO MARIO</t>
+          <t>ALANCAY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RAMON</t>
+          <t>DIAZ MATIAS MAXIMILIAN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>38691218</t>
-        </is>
+      <c r="A13" t="n">
+        <v>33769609</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SORIA FABIO</t>
+          <t>ALANIS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OSVALDO</t>
+          <t>LEANDRO MIGUEL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>20550320</t>
-        </is>
+      <c r="A14" t="n">
+        <v>41029024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SOSA CARLOS</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JESUS</t>
+          <t>AXEL JORGE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>41880461</t>
-        </is>
+      <c r="A15" t="n">
+        <v>36590358</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SOSA KEVIN</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MARIANO GABRIEL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>94439309</t>
-        </is>
+      <c r="A16" t="n">
+        <v>39138001</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TICONA CALDERON</t>
+          <t>ALBELO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DANIEL</t>
+          <t>BRIAN ARIEL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>18579333</t>
-        </is>
+      <c r="A17" t="n">
+        <v>32039488</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UEHARA MARIA</t>
+          <t>ALBELO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CRISTINA</t>
+          <t>WALTER GASTON</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>39588571</t>
-        </is>
+      <c r="A18" t="n">
+        <v>30936368</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VALENCIA FRANCO</t>
+          <t>ALDANA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EZEQUIEL</t>
+          <t>DINA MARICEL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>41988092</t>
-        </is>
+      <c r="A19" t="n">
+        <v>42103217</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>VALENCIA LAUTARO</t>
+          <t>ALDERETE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NAHUEL</t>
+          <t>NATALIE ORIT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mecan Se</t>
+          <t>Sullair</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>46336</v>
+        <v>45972</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>46023</v>
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23980123</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ALFARO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HERNAN ANDRES</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sullair</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42930427</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ALFONZO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ARNEZ MARIA FLORENCIA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sullair</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40962568</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ALGAÑARAZ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PEREYRA PABLO</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sullair</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>46683507</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ALLENDE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TOMAS HUGO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sullair</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>46387</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>27407995</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Acuna</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Armando Dani</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>36315468</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aguilar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cristian Elian Demian</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>34683982</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aguirre</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gustavo Alberto</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>37039269</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aguirre</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lucas Hernan</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>42415723</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ALBORNOZ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ALAN GABRIEL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18589748</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Silvia Alicia</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>34136470</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Antunez</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>German Elias</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>36022518</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Antunez</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gonzalo Nahuel</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>42057493</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Avalos</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Luciano Gonzalo Facundo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18494929</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BOLIVAR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OSCAR OMAR</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>34985200</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CARDOZO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WALTER DANIEL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>95101683</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Colman</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Salinas Oscar Benicio</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>40853319</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CORIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BRAIAN DANIEL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>32883747</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ESTEVEZ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CARLOS MATEO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30825434</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FRANCO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JUAN RAMON</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>25083515</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GALEANO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>JORGE RAUL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>25083514</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Galeano</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Roberto Carlos</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>93090022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GAMARRA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>VALENZUELA INOCENCIO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>94309916</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Gamarra</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Valenzuela Candido Efrain</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41294103</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Manuel Arnaldo Andres</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>45618563</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Dylan Luciano</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>32461887</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Walter Federico</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17994094</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Leguizamon</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Edgardo Vicente</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>24476182</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>OLIVERA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DIEGO SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>17772621</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pavon</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Osvaldo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>35039501</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sergio Daniel</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>28478801</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Portillo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Diego Oscar</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>47156013</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RAMIREZ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CIRO DAMIAN</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>27372267</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RIOS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PABLO ALBERTO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>33536604</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rios</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>38671172</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ROJAS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FACUNDO ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>38671171</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Luciano Brian</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>42364720</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Enzo Juan Cruz</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>47216753</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Gabriel Alejandro</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>41914368</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Nahuel Agustin</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>95269469</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Servian</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ramirez Luis Miguel</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>16844938</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Waldo Siro</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>26223923</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TOCCALINO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MARTIN BAUTISTA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>14931887</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TOZZI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>HECTOR LEONARDO</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>29511709</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TREJO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>HECTOR GUSTAVO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>29066134</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VELOZO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>21767826</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vera</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Celso</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>35756768</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Villegas</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12534348</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Villegas</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Jorge Alberto</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>30795626</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Villegas</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Jorge Alejandro</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>42315377</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VILLEGAS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>VICTOR MANUEL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>27790366</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Yedro</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Diego Ariel</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>23541295</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>YEDRO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>WALTER JOSE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Teruel</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45991</v>
       </c>
     </row>
   </sheetData>
